--- a/translation/xlsx/_meak_022_1.xlsx
+++ b/translation/xlsx/_meak_022_1.xlsx
@@ -654,7 +654,7 @@
     <t xml:space="preserve"> ...I think it's just me, but... if you feel like you're being watched too, Kei-chan, then...</t>
   </si>
   <si>
-    <t xml:space="preserve">...지금은 기분 탓이라고 생각하지만, 만약 케이쨩도 똑같이 누군가에게 감시되고 있는 것처럼 느낀다면.... </t>
+    <t xml:space="preserve">...지금은 기분 탓이라고 생각하지만, 만약 케이쨩도 똑같이 누군가에게 감시당하고 있다고 느낀다면.... </t>
   </si>
   <si>
     <t>......지금은 기분탓이라고 생각하고 있습니다만, ...만약 케이짱도 마찬가지로, 누군가에게 감시받고 있는 것처럼 느낀다면.......</t>
@@ -666,7 +666,7 @@
     <t xml:space="preserve"> ...Maybe it's not just in my head...\"</t>
   </si>
   <si>
-    <t xml:space="preserve">기분 탓이 아닌지도 모르니까....\" </t>
+    <t xml:space="preserve">기분 탓이 아닐지도 모르니까....\" </t>
   </si>
   <si>
     <t>......이건 기분 탓이 아닐지도 모르니까요..."</t>
